--- a/cdss_database_v7.xlsx
+++ b/cdss_database_v7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python projects\cdss\mini-project-cdss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1A434C-88BC-4A8D-9798-E96707492FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C258B93-EEBE-4BA6-8E32-0BFAEB871964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient_Demographics" sheetId="1" r:id="rId1"/>
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2168,9 +2168,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1163"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="38.25" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -32422,6 +32431,12 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
+    <col min="5" max="5" width="22.375" customWidth="1"/>
+    <col min="6" max="6" width="22.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">

--- a/cdss_database_v7.xlsx
+++ b/cdss_database_v7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python projects\cdss\mini-project-cdss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D7087E-0D96-405B-83D8-AB9F976484AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37094023-A581-425C-A543-309E2417BA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient_Demographics" sheetId="1" r:id="rId1"/>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H51" sqref="A4:H51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -763,7 +763,7 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>14.8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>

--- a/cdss_database_v7.xlsx
+++ b/cdss_database_v7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python projects\cdss\mini-project-cdss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37094023-A581-425C-A543-309E2417BA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B3C5A5-DBCA-477D-BC08-E90FA9DD417B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="50">
   <si>
     <t>Patient_ID</t>
   </si>
@@ -633,10 +633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1127,19 +1127,19 @@
         <v>24</v>
       </c>
       <c r="D19">
-        <v>14.5</v>
+        <v>11.6</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="2">
-        <v>45751.600545308807</v>
+        <v>45819.580927571653</v>
       </c>
       <c r="G19" s="2">
-        <v>45749.600545308807</v>
+        <v>45817.580927571653</v>
       </c>
       <c r="H19" s="2">
-        <v>45758.600545308807</v>
+        <v>45826.580927571653</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1147,25 +1147,25 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>12.7</v>
+        <v>9247.2000000000007</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F20" s="2">
-        <v>45752.541537238692</v>
+        <v>45761.931023815152</v>
       </c>
       <c r="G20" s="2">
-        <v>45750.541537238692</v>
+        <v>45761.431023815152</v>
       </c>
       <c r="H20" s="2">
-        <v>45759.541537238692</v>
+        <v>45764.931023815152</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1173,25 +1173,25 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>15.6</v>
+        <v>8107.4</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F21" s="2">
-        <v>45764.192449529939</v>
+        <v>45771.858917936028</v>
       </c>
       <c r="G21" s="2">
-        <v>45762.192449529939</v>
+        <v>45771.358917936028</v>
       </c>
       <c r="H21" s="2">
-        <v>45771.192449529939</v>
+        <v>45774.858917936028</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1199,25 +1199,25 @@
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>14.4</v>
+        <v>17510.099999999999</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F22" s="2">
-        <v>45775.964263096903</v>
+        <v>45772.666135029307</v>
       </c>
       <c r="G22" s="2">
-        <v>45773.964263096903</v>
+        <v>45772.166135029307</v>
       </c>
       <c r="H22" s="2">
-        <v>45782.964263096903</v>
+        <v>45775.666135029307</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1225,25 +1225,25 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>13.5</v>
+        <v>6475.8</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F23" s="2">
-        <v>45780.552708193012</v>
+        <v>45774.589237944041</v>
       </c>
       <c r="G23" s="2">
-        <v>45778.552708193012</v>
+        <v>45774.089237944041</v>
       </c>
       <c r="H23" s="2">
-        <v>45787.552708193012</v>
+        <v>45777.589237944041</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1251,25 +1251,25 @@
         <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>12.4</v>
+        <v>36.5</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F24" s="2">
-        <v>45780.884213105433</v>
+        <v>45751.721000265847</v>
       </c>
       <c r="G24" s="2">
-        <v>45778.884213105433</v>
+        <v>45751.681000265853</v>
       </c>
       <c r="H24" s="2">
-        <v>45787.884213105433</v>
+        <v>45751.971000265847</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1277,25 +1277,25 @@
         <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>11.6</v>
+        <v>36.9</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F25" s="2">
-        <v>45819.580927571653</v>
+        <v>45761.084456593831</v>
       </c>
       <c r="G25" s="2">
-        <v>45817.580927571653</v>
+        <v>45761.044456593831</v>
       </c>
       <c r="H25" s="2">
-        <v>45826.580927571653</v>
+        <v>45761.334456593831</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1303,25 +1303,25 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>9247.2000000000007</v>
+        <v>37.5</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F26" s="2">
-        <v>45761.931023815152</v>
+        <v>45778.37649987777</v>
       </c>
       <c r="G26" s="2">
-        <v>45761.431023815152</v>
+        <v>45778.336499877769</v>
       </c>
       <c r="H26" s="2">
-        <v>45764.931023815152</v>
+        <v>45778.62649987777</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1329,25 +1329,25 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>8107.4</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F27" s="2">
-        <v>45771.858917936028</v>
+        <v>45780.571996187937</v>
       </c>
       <c r="G27" s="2">
-        <v>45771.358917936028</v>
+        <v>45780.531996187943</v>
       </c>
       <c r="H27" s="2">
-        <v>45774.858917936028</v>
+        <v>45780.821996187937</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1355,25 +1355,25 @@
         <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D28">
-        <v>17510.099999999999</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" s="2">
-        <v>45772.666135029307</v>
+        <v>45781.439773510247</v>
       </c>
       <c r="G28" s="2">
-        <v>45772.166135029307</v>
+        <v>45781.399773510253</v>
       </c>
       <c r="H28" s="2">
-        <v>45775.666135029307</v>
+        <v>45781.689773510247</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1381,25 +1381,25 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>6475.8</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F29" s="2">
-        <v>45774.589237944041</v>
+        <v>45792.920570613467</v>
       </c>
       <c r="G29" s="2">
-        <v>45774.089237944041</v>
+        <v>45792.880570613474</v>
       </c>
       <c r="H29" s="2">
-        <v>45777.589237944041</v>
+        <v>45793.170570613467</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1413,19 +1413,19 @@
         <v>26</v>
       </c>
       <c r="D30">
-        <v>36.5</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="E30" t="s">
         <v>29</v>
       </c>
       <c r="F30" s="2">
-        <v>45751.721000265847</v>
+        <v>45793.400996006378</v>
       </c>
       <c r="G30" s="2">
-        <v>45751.681000265853</v>
+        <v>45793.360996006377</v>
       </c>
       <c r="H30" s="2">
-        <v>45751.971000265847</v>
+        <v>45793.650996006378</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1439,19 +1439,19 @@
         <v>26</v>
       </c>
       <c r="D31">
-        <v>36.9</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="2">
-        <v>45761.084456593831</v>
+        <v>45810.650991574767</v>
       </c>
       <c r="G31" s="2">
-        <v>45761.044456593831</v>
+        <v>45810.610991574773</v>
       </c>
       <c r="H31" s="2">
-        <v>45761.334456593831</v>
+        <v>45810.900991574767</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1465,174 +1465,18 @@
         <v>26</v>
       </c>
       <c r="D32">
-        <v>37.5</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="E32" t="s">
         <v>29</v>
       </c>
       <c r="F32" s="2">
-        <v>45778.37649987777</v>
+        <v>45812.385391724201</v>
       </c>
       <c r="G32" s="2">
-        <v>45778.336499877769</v>
+        <v>45812.3453917242</v>
       </c>
       <c r="H32" s="2">
-        <v>45778.62649987777</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33">
-        <v>38</v>
-      </c>
-      <c r="E33" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="2">
-        <v>45780.571996187937</v>
-      </c>
-      <c r="G33" s="2">
-        <v>45780.531996187943</v>
-      </c>
-      <c r="H33" s="2">
-        <v>45780.821996187937</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="E34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="2">
-        <v>45781.439773510247</v>
-      </c>
-      <c r="G34" s="2">
-        <v>45781.399773510253</v>
-      </c>
-      <c r="H34" s="2">
-        <v>45781.689773510247</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="B35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="E35" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="2">
-        <v>45792.920570613467</v>
-      </c>
-      <c r="G35" s="2">
-        <v>45792.880570613474</v>
-      </c>
-      <c r="H35" s="2">
-        <v>45793.170570613467</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="E36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36" s="2">
-        <v>45793.400996006378</v>
-      </c>
-      <c r="G36" s="2">
-        <v>45793.360996006377</v>
-      </c>
-      <c r="H36" s="2">
-        <v>45793.650996006378</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>2</v>
-      </c>
-      <c r="B37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="E37" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="2">
-        <v>45810.650991574767</v>
-      </c>
-      <c r="G37" s="2">
-        <v>45810.610991574773</v>
-      </c>
-      <c r="H37" s="2">
-        <v>45810.900991574767</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>2</v>
-      </c>
-      <c r="B38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D38">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="E38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="2">
-        <v>45812.385391724201</v>
-      </c>
-      <c r="G38" s="2">
-        <v>45812.3453917242</v>
-      </c>
-      <c r="H38" s="2">
         <v>45812.635391724201</v>
       </c>
     </row>

--- a/cdss_database_v7.xlsx
+++ b/cdss_database_v7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python projects\cdss\mini-project-cdss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B3C5A5-DBCA-477D-BC08-E90FA9DD417B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6565211-725D-40B5-B3AA-0FDA31C3C79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="50">
   <si>
     <t>Patient_ID</t>
   </si>
@@ -633,10 +633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1127,7 +1127,7 @@
         <v>24</v>
       </c>
       <c r="D19">
-        <v>11.6</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
@@ -1153,19 +1153,19 @@
         <v>25</v>
       </c>
       <c r="D20">
-        <v>9247.2000000000007</v>
+        <v>16475.8</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="2">
-        <v>45761.931023815152</v>
+        <v>45818.580925925926</v>
       </c>
       <c r="G20" s="2">
-        <v>45761.431023815152</v>
+        <v>45817.580927571653</v>
       </c>
       <c r="H20" s="2">
-        <v>45764.931023815152</v>
+        <v>45825.580925925926</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1173,311 +1173,25 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>8107.4</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" s="2">
-        <v>45771.858917936028</v>
+        <v>45818.580925925926</v>
       </c>
       <c r="G21" s="2">
-        <v>45771.358917936028</v>
+        <v>45817.580927571653</v>
       </c>
       <c r="H21" s="2">
-        <v>45774.858917936028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22">
-        <v>17510.099999999999</v>
-      </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="2">
-        <v>45772.666135029307</v>
-      </c>
-      <c r="G22" s="2">
-        <v>45772.166135029307</v>
-      </c>
-      <c r="H22" s="2">
-        <v>45775.666135029307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23">
-        <v>6475.8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="2">
-        <v>45774.589237944041</v>
-      </c>
-      <c r="G23" s="2">
-        <v>45774.089237944041</v>
-      </c>
-      <c r="H23" s="2">
-        <v>45777.589237944041</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24">
-        <v>36.5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="2">
-        <v>45751.721000265847</v>
-      </c>
-      <c r="G24" s="2">
-        <v>45751.681000265853</v>
-      </c>
-      <c r="H24" s="2">
-        <v>45751.971000265847</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25">
-        <v>36.9</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="2">
-        <v>45761.084456593831</v>
-      </c>
-      <c r="G25" s="2">
-        <v>45761.044456593831</v>
-      </c>
-      <c r="H25" s="2">
-        <v>45761.334456593831</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26">
-        <v>37.5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="2">
-        <v>45778.37649987777</v>
-      </c>
-      <c r="G26" s="2">
-        <v>45778.336499877769</v>
-      </c>
-      <c r="H26" s="2">
-        <v>45778.62649987777</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27">
-        <v>38</v>
-      </c>
-      <c r="E27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="2">
-        <v>45780.571996187937</v>
-      </c>
-      <c r="G27" s="2">
-        <v>45780.531996187943</v>
-      </c>
-      <c r="H27" s="2">
-        <v>45780.821996187937</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="E28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="2">
-        <v>45781.439773510247</v>
-      </c>
-      <c r="G28" s="2">
-        <v>45781.399773510253</v>
-      </c>
-      <c r="H28" s="2">
-        <v>45781.689773510247</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="E29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="2">
-        <v>45792.920570613467</v>
-      </c>
-      <c r="G29" s="2">
-        <v>45792.880570613474</v>
-      </c>
-      <c r="H29" s="2">
-        <v>45793.170570613467</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="E30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="2">
-        <v>45793.400996006378</v>
-      </c>
-      <c r="G30" s="2">
-        <v>45793.360996006377</v>
-      </c>
-      <c r="H30" s="2">
-        <v>45793.650996006378</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="E31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="2">
-        <v>45810.650991574767</v>
-      </c>
-      <c r="G31" s="2">
-        <v>45810.610991574773</v>
-      </c>
-      <c r="H31" s="2">
-        <v>45810.900991574767</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="E32" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="2">
-        <v>45812.385391724201</v>
-      </c>
-      <c r="G32" s="2">
-        <v>45812.3453917242</v>
-      </c>
-      <c r="H32" s="2">
-        <v>45812.635391724201</v>
+        <v>45825.580925925926</v>
       </c>
     </row>
   </sheetData>

--- a/cdss_database_v7.xlsx
+++ b/cdss_database_v7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python projects\cdss\mini-project-cdss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6565211-725D-40B5-B3AA-0FDA31C3C79A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B00FE0-E419-4DED-AECE-152FA06D0ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient_Demographics" sheetId="1" r:id="rId1"/>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1179,7 +1179,7 @@
         <v>26</v>
       </c>
       <c r="D21">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
@@ -1203,10 +1203,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F808"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="22.375" customWidth="1"/>
@@ -1621,16 +1624,16 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D21" s="2">
-        <v>45778.958465680284</v>
+        <v>45818.580925925926</v>
       </c>
       <c r="E21" s="2">
-        <v>45778.708465680284</v>
+        <v>45818.580925925926</v>
       </c>
       <c r="F21" s="2">
-        <v>45779.958465680284</v>
+        <v>45827.580925925926</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">

--- a/cdss_database_v7.xlsx
+++ b/cdss_database_v7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python projects\cdss\mini-project-cdss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4477420-9A8E-439A-9893-2A601D862F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6B38C9-63B1-4744-8722-DF3A3B95189B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2169,7 +2169,7 @@
   <dimension ref="A1:H1162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2608,19 +2608,19 @@
         <v>169</v>
       </c>
       <c r="D17">
-        <v>36.6</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
         <v>172</v>
       </c>
       <c r="F17" s="2">
-        <v>45821.431539520927</v>
+        <v>45831.431539351855</v>
       </c>
       <c r="G17" s="2">
-        <v>45821.391539520933</v>
+        <v>45831.391539351855</v>
       </c>
       <c r="H17" s="2">
-        <v>45821.681539520927</v>
+        <v>45831.681539351855</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -32403,7 +32403,7 @@
   <dimension ref="A1:F808"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32744,7 +32744,7 @@
         <v>177</v>
       </c>
       <c r="C17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D17" s="2">
         <v>45832.981006944443</v>

--- a/cdss_database_v7.xlsx
+++ b/cdss_database_v7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python projects\cdss\mini-project-cdss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6B38C9-63B1-4744-8722-DF3A3B95189B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0919F8E4-6068-4AC0-9ADD-2BDF97A443E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2168,8 +2168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="I297" sqref="I297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9738,13 +9738,13 @@
         <v>171</v>
       </c>
       <c r="F291" s="2">
-        <v>45818.668540191829</v>
+        <v>45830.668541666666</v>
       </c>
       <c r="G291" s="2">
-        <v>45818.168540191829</v>
+        <v>45830.168541666666</v>
       </c>
       <c r="H291" s="2">
-        <v>45821.668540191829</v>
+        <v>45831.668541666666</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
@@ -9888,19 +9888,19 @@
         <v>169</v>
       </c>
       <c r="D297">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E297" t="s">
         <v>172</v>
       </c>
       <c r="F297" s="2">
-        <v>45825.289743110057</v>
+        <v>45834.28974537037</v>
       </c>
       <c r="G297" s="2">
-        <v>45825.249743110056</v>
+        <v>45835.249745370369</v>
       </c>
       <c r="H297" s="2">
-        <v>45825.539743110057</v>
+        <v>45835.53974537037</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
@@ -32402,8 +32402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F808"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36604,16 +36604,16 @@
         <v>176</v>
       </c>
       <c r="C210" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D210" s="2">
-        <v>45818.87119052979</v>
+        <v>45830.871192129627</v>
       </c>
       <c r="E210" s="2">
-        <v>45818.62119052979</v>
+        <v>45830.621192129627</v>
       </c>
       <c r="F210" s="2">
-        <v>45819.87119052979</v>
+        <v>45831.871192129627</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">

--- a/cdss_database_v7.xlsx
+++ b/cdss_database_v7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python projects\cdss\mini-project-cdss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0919F8E4-6068-4AC0-9ADD-2BDF97A443E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE343627-AA80-454A-B3A9-FE57D2EA69B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2169,7 +2169,7 @@
   <dimension ref="A1:H1162"/>
   <sheetViews>
     <sheetView topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="I297" sqref="I297"/>
+      <selection activeCell="H297" sqref="H297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9894,13 +9894,13 @@
         <v>172</v>
       </c>
       <c r="F297" s="2">
-        <v>45834.28974537037</v>
+        <v>45833.28974537037</v>
       </c>
       <c r="G297" s="2">
-        <v>45835.249745370369</v>
+        <v>45833.249745370369</v>
       </c>
       <c r="H297" s="2">
-        <v>45835.53974537037</v>
+        <v>45834.53974537037</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
@@ -32403,7 +32403,7 @@
   <dimension ref="A1:F808"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="H210" sqref="H210"/>
+      <selection activeCell="G209" sqref="G209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36607,13 +36607,13 @@
         <v>190</v>
       </c>
       <c r="D210" s="2">
-        <v>45830.871192129627</v>
+        <v>45833.871192129627</v>
       </c>
       <c r="E210" s="2">
-        <v>45830.621192129627</v>
+        <v>45833.621192129627</v>
       </c>
       <c r="F210" s="2">
-        <v>45831.871192129627</v>
+        <v>45835.871192129627</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">

--- a/cdss_database_v7.xlsx
+++ b/cdss_database_v7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python projects\cdss\mini-project-cdss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE343627-AA80-454A-B3A9-FE57D2EA69B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B40873-909E-4416-A0C2-D89D2C143D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient_Demographics" sheetId="1" r:id="rId1"/>
@@ -2168,8 +2168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1162"/>
   <sheetViews>
-    <sheetView topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="H297" sqref="H297"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="I297" sqref="I297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9894,10 +9894,10 @@
         <v>172</v>
       </c>
       <c r="F297" s="2">
-        <v>45833.28974537037</v>
+        <v>45833</v>
       </c>
       <c r="G297" s="2">
-        <v>45833.249745370369</v>
+        <v>45833</v>
       </c>
       <c r="H297" s="2">
         <v>45834.53974537037</v>
@@ -32402,8 +32402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F808"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="G209" sqref="G209"/>
+    <sheetView topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="G210" sqref="G210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36607,10 +36607,10 @@
         <v>190</v>
       </c>
       <c r="D210" s="2">
-        <v>45833.871192129627</v>
+        <v>45832.871192129627</v>
       </c>
       <c r="E210" s="2">
-        <v>45833.621192129627</v>
+        <v>45832.621192129627</v>
       </c>
       <c r="F210" s="2">
         <v>45835.871192129627</v>
@@ -36627,13 +36627,13 @@
         <v>187</v>
       </c>
       <c r="D211" s="2">
-        <v>45819.301092271213</v>
+        <v>45833</v>
       </c>
       <c r="E211" s="2">
-        <v>45819.051092271213</v>
+        <v>45833</v>
       </c>
       <c r="F211" s="2">
-        <v>45820.301092271213</v>
+        <v>45834.301087962966</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">

--- a/cdss_database_v7.xlsx
+++ b/cdss_database_v7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python projects\cdss\mini-project-cdss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ACA6A3-1F53-45F6-80FB-CAC6ED852688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2539BB5A-6386-475D-9079-1ACA7BA2CA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient_Demographics" sheetId="1" r:id="rId1"/>
@@ -2168,7 +2168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+    <sheetView topLeftCell="A272" workbookViewId="0">
       <selection activeCell="H297" sqref="H297"/>
     </sheetView>
   </sheetViews>
@@ -32402,8 +32402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F805"/>
   <sheetViews>
-    <sheetView topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="C206" sqref="C206"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="E206" sqref="E206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36524,10 +36524,10 @@
         <v>177</v>
       </c>
       <c r="C206" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D206" s="2">
-        <v>45802.311898148146</v>
+        <v>45802.020231481481</v>
       </c>
       <c r="E206" s="2">
         <v>45802.061898148146</v>

--- a/cdss_database_v7.xlsx
+++ b/cdss_database_v7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python projects\cdss\mini-project-cdss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2539BB5A-6386-475D-9079-1ACA7BA2CA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B7511C-B3B7-4806-AD2B-CC42733CED78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient_Demographics" sheetId="1" r:id="rId1"/>
@@ -2168,8 +2168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1162"/>
   <sheetViews>
-    <sheetView topLeftCell="A272" workbookViewId="0">
-      <selection activeCell="H297" sqref="H297"/>
+    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
+      <selection activeCell="J508" sqref="J508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15380,13 +15380,13 @@
         <v>171</v>
       </c>
       <c r="F508" s="2">
-        <v>45819.011204913033</v>
+        <v>45831.011203703703</v>
       </c>
       <c r="G508" s="2">
-        <v>45818.511204913033</v>
+        <v>45831.511203703703</v>
       </c>
       <c r="H508" s="2">
-        <v>45822.011204913033</v>
+        <v>45832.011203703703</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.2">
@@ -32402,7 +32402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F805"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+    <sheetView topLeftCell="A194" workbookViewId="0">
       <selection activeCell="E206" sqref="E206"/>
     </sheetView>
   </sheetViews>

--- a/cdss_database_v7.xlsx
+++ b/cdss_database_v7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python projects\cdss\mini-project-cdss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B7511C-B3B7-4806-AD2B-CC42733CED78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D6769D-D777-4C20-A514-E17EB7E93950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient_Demographics" sheetId="1" r:id="rId1"/>
@@ -974,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -2168,8 +2168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
-      <selection activeCell="J508" sqref="J508"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3134,13 +3134,13 @@
         <v>172</v>
       </c>
       <c r="F37" s="2">
-        <v>45812.385391724201</v>
+        <v>45831.385393518518</v>
       </c>
       <c r="G37" s="2">
-        <v>45812.3453917242</v>
+        <v>45831.345393518517</v>
       </c>
       <c r="H37" s="2">
-        <v>45812.635391724201</v>
+        <v>45831.635393518518</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -15712,19 +15712,19 @@
         <v>169</v>
       </c>
       <c r="D521">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E521" t="s">
         <v>172</v>
       </c>
       <c r="F521" s="2">
-        <v>45822.828424357918</v>
+        <v>45831.411759259259</v>
       </c>
       <c r="G521" s="2">
-        <v>45822.788424357917</v>
+        <v>45831.371759259258</v>
       </c>
       <c r="H521" s="2">
-        <v>45823.078424357918</v>
+        <v>45832.078425925924</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.2">
@@ -32402,8 +32402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F805"/>
   <sheetViews>
-    <sheetView topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="E206" sqref="E206"/>
+    <sheetView topLeftCell="A598" workbookViewId="0">
+      <selection activeCell="C629" sqref="C629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/cdss_database_v7.xlsx
+++ b/cdss_database_v7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python projects\cdss\mini-project-cdss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D6769D-D777-4C20-A514-E17EB7E93950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE519AEC-194E-4E32-A28E-E3ABA089C879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient_Demographics" sheetId="1" r:id="rId1"/>
@@ -2169,7 +2169,7 @@
   <dimension ref="A1:H1162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="D252" sqref="D252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8718,7 +8718,7 @@
         <v>169</v>
       </c>
       <c r="D252">
-        <v>39.200000000000003</v>
+        <v>39.1</v>
       </c>
       <c r="E252" t="s">
         <v>172</v>

--- a/cdss_database_v7.xlsx
+++ b/cdss_database_v7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python projects\cdss\mini-project-cdss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE519AEC-194E-4E32-A28E-E3ABA089C879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BDB14F-1C77-4F9C-9A9D-1E9BDB72EA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient_Demographics" sheetId="1" r:id="rId1"/>
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2168,8 +2168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="D252" sqref="D252"/>
+    <sheetView topLeftCell="A504" workbookViewId="0">
+      <selection activeCell="D521" sqref="D521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32402,8 +32402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F805"/>
   <sheetViews>
-    <sheetView topLeftCell="A598" workbookViewId="0">
-      <selection activeCell="C629" sqref="C629"/>
+    <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
+      <selection activeCell="D364" sqref="D364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -39667,7 +39667,7 @@
         <v>187</v>
       </c>
       <c r="D363" s="2">
-        <v>45803.58498355226</v>
+        <v>45833.584988425922</v>
       </c>
       <c r="E363" s="2">
         <v>45803.33498355226</v>

--- a/cdss_database_v7.xlsx
+++ b/cdss_database_v7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python projects\cdss\mini-project-cdss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BDB14F-1C77-4F9C-9A9D-1E9BDB72EA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C2EC4F-90E5-4FF2-811D-D15A2F44BF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32403,7 +32403,7 @@
   <dimension ref="A1:F805"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A353" workbookViewId="0">
-      <selection activeCell="D364" sqref="D364"/>
+      <selection activeCell="E365" sqref="E365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -39707,7 +39707,7 @@
         <v>181</v>
       </c>
       <c r="D365" s="2">
-        <v>45815.752405833278</v>
+        <v>45815.753101851849</v>
       </c>
       <c r="E365" s="2">
         <v>45815.502405833278</v>
